--- a/고객정보_시스템확인/SourceData/XX97615.xlsx
+++ b/고객정보_시스템확인/SourceData/XX97615.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\고객정보_시스템확인\SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C467DF-9055-40D4-94B8-258FD02348C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA119055-6DB9-4B0B-8854-47CBF092C5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="936" windowWidth="23040" windowHeight="10416" xr2:uid="{C2013979-915A-4046-B759-4A10182992CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CCF3626-FC8B-4531-B418-EC7C07646175}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,90 +31,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
-  <si>
-    <t>2017-02-25  12:00:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Online</t>
   </si>
   <si>
-    <t>2017-03-01  12:00:00</t>
+    <t>2017-01-31  12:00:00</t>
   </si>
   <si>
     <t>Offline</t>
   </si>
   <si>
-    <t>2017-03-31  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-15  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-13  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-25  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-30  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-12  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-27  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-15  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-08  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-14  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-21  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-18  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-11  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-14  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-03  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-09  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-21  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-11  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-19  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-01-28  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-02-02  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-04  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-03-08  12:00:00</t>
-  </si>
-  <si>
-    <t>2017-04-03  12:00:00</t>
+    <t>2017-01-24  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-14  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-19  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-17  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-09  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-10  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-08  12:00:00</t>
   </si>
   <si>
     <t>TransactionID</t>
@@ -131,6 +77,93 @@
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-02  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-15  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-04  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-18  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-02  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-19  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-25  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-10  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-30  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-14  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-15  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-01  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-30  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-18  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-18  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-05  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-11  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-26  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-02  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-07  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-29  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-06-05  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-29  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-16  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-01-07  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-03-15  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-04-15  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-05-27  12:00:00</t>
+  </si>
+  <si>
+    <t>2017-02-13  12:00:00</t>
   </si>
 </sst>
 </file>
@@ -493,8 +526,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BD5041-C979-4281-8379-361C172DFE89}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9312A8F-4111-40D0-8073-E3B56AFCE775}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,464 +535,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>38376300</v>
+        <v>80975485</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>260529</v>
+        <v>-235713</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>13730976</v>
+        <v>53402751</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>61344</v>
+        <v>-77352</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>16818671</v>
+        <v>75204299</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>-178560</v>
+        <v>-294744</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>45215879</v>
+        <v>43925778</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>-92372</v>
+        <v>-5019</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>39223199</v>
+        <v>50052674</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>198277</v>
+        <v>205189</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>39619167</v>
+        <v>61034794</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>-29264</v>
+        <v>65833</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>84190116</v>
+        <v>51246396</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>176549</v>
+        <v>-217005</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>93710772</v>
+        <v>66896053</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>151321</v>
+        <v>114597</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>42635685</v>
+        <v>16868006</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>-123907</v>
+        <v>-287316</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>31038081</v>
+        <v>89882838</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>-114068</v>
+        <v>-262447</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>23604898</v>
+        <v>46131817</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>-264904</v>
+        <v>162367</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>88693051</v>
+        <v>20407848</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>-69596</v>
+        <v>290654</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>21567747</v>
+        <v>65301643</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C14">
-        <v>80042</v>
+        <v>-159132</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>99434622</v>
+        <v>57709694</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>276863</v>
+        <v>28873</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>65215038</v>
+        <v>26868712</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>233048</v>
+        <v>174073</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>56075628</v>
+        <v>55336027</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>83286</v>
+        <v>-137907</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>72140951</v>
+        <v>36283638</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>24272</v>
+        <v>219832</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>41190583</v>
+        <v>20453821</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>-266112</v>
+        <v>151701</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>84126861</v>
+        <v>97535910</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>50134</v>
+        <v>74598</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>55913106</v>
+        <v>47135738</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>-52228</v>
+        <v>-234833</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>44198442</v>
+        <v>25451108</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>175963</v>
+        <v>-66035</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>69063726</v>
+        <v>74583623</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>171780</v>
+        <v>-49737</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>39648282</v>
+        <v>15154165</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>-126006</v>
+        <v>149127</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>23468021</v>
+        <v>29270499</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>-59414</v>
+        <v>226192</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>26921582</v>
+        <v>38880172</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>-62219</v>
+        <v>-129530</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>45959757</v>
+        <v>55173534</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>89179</v>
+        <v>16924</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>48842988</v>
+        <v>14722896</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>124817</v>
+        <v>-10217</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>99174732</v>
+        <v>85000750</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>245032</v>
+        <v>-140140</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>83137955</v>
+        <v>30471984</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>-188046</v>
+        <v>228256</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>37010420</v>
+        <v>77639578</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>-254016</v>
+        <v>-186643</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>19731699</v>
+        <v>45151073</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>275702</v>
+        <v>32135</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>54395833</v>
+        <v>21015398</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>-181582</v>
+        <v>155276</v>
       </c>
       <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>20558733</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>-88488</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>23498304</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>-237839</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>57162771</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>81108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>87363616</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>-166368</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>91558705</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>-234196</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>67593763</v>
+      </c>
+      <c r="B39" t="s">
         <v>1</v>
+      </c>
+      <c r="C39">
+        <v>77604</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>73889501</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>-188022</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>58711221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>64981</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
